--- a/resources/parser/out.xlsx
+++ b/resources/parser/out.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Vehicle_ID</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>λ</t>
+  </si>
+  <si>
+    <t>probabilities, density</t>
+  </si>
+  <si>
+    <t>probabilities, cumulative</t>
   </si>
 </sst>
 </file>
@@ -562,7 +568,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -571,6 +577,7 @@
     <xf numFmtId="165" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -51382,10 +51389,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S93"/>
+  <dimension ref="B1:AH93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51394,7 +51401,7 @@
     <col min="8" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:34" x14ac:dyDescent="0.25">
       <c r="H1">
         <v>201</v>
       </c>
@@ -51431,8 +51438,44 @@
       <c r="S1">
         <v>223</v>
       </c>
-    </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="W1">
+        <v>201</v>
+      </c>
+      <c r="X1">
+        <v>202</v>
+      </c>
+      <c r="Y1">
+        <v>203</v>
+      </c>
+      <c r="Z1">
+        <v>211</v>
+      </c>
+      <c r="AA1">
+        <v>212</v>
+      </c>
+      <c r="AB1">
+        <v>213</v>
+      </c>
+      <c r="AC1">
+        <v>214</v>
+      </c>
+      <c r="AD1">
+        <v>215</v>
+      </c>
+      <c r="AE1">
+        <v>220</v>
+      </c>
+      <c r="AF1">
+        <v>221</v>
+      </c>
+      <c r="AG1">
+        <v>222</v>
+      </c>
+      <c r="AH1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>101</v>
       </c>
@@ -51472,8 +51515,38 @@
       <c r="S2">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>101</v>
+      </c>
+      <c r="X2">
+        <v>12</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>2</v>
+      </c>
+      <c r="AC2">
+        <v>67</v>
+      </c>
+      <c r="AD2">
+        <v>8</v>
+      </c>
+      <c r="AF2">
+        <v>5</v>
+      </c>
+      <c r="AG2">
+        <v>3</v>
+      </c>
+      <c r="AH2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>101</v>
       </c>
@@ -51510,8 +51583,38 @@
       <c r="S3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>102</v>
+      </c>
+      <c r="W3">
+        <v>8</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>18</v>
+      </c>
+      <c r="AD3">
+        <v>3</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>101</v>
       </c>
@@ -51533,8 +51636,23 @@
       <c r="S4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>103</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>7</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>101</v>
       </c>
@@ -51556,8 +51674,23 @@
       <c r="S5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>111</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>7</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>101</v>
       </c>
@@ -51582,8 +51715,26 @@
       <c r="Q6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="V6">
+        <v>112</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>9</v>
+      </c>
+      <c r="AD6">
+        <v>2</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>101</v>
       </c>
@@ -51602,8 +51753,20 @@
       <c r="N7">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>113</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>101</v>
       </c>
@@ -51646,8 +51809,41 @@
       <c r="S8">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <v>6</v>
+      </c>
+      <c r="V8">
+        <v>114</v>
+      </c>
+      <c r="W8">
+        <v>73</v>
+      </c>
+      <c r="X8">
+        <v>17</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>24</v>
+      </c>
+      <c r="AB8">
+        <v>72</v>
+      </c>
+      <c r="AD8">
+        <v>43</v>
+      </c>
+      <c r="AF8">
+        <v>3</v>
+      </c>
+      <c r="AG8">
+        <v>3</v>
+      </c>
+      <c r="AH8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>101</v>
       </c>
@@ -51681,8 +51877,35 @@
       <c r="S9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <v>7</v>
+      </c>
+      <c r="V9">
+        <v>115</v>
+      </c>
+      <c r="AA9">
+        <v>6</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>46</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>3</v>
+      </c>
+      <c r="AG9">
+        <v>3</v>
+      </c>
+      <c r="AH9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>101</v>
       </c>
@@ -51713,8 +51936,32 @@
       <c r="S10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <v>8</v>
+      </c>
+      <c r="V10">
+        <v>120</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>2</v>
+      </c>
+      <c r="AD10">
+        <v>4</v>
+      </c>
+      <c r="AF10">
+        <v>2</v>
+      </c>
+      <c r="AH10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>101</v>
       </c>
@@ -51748,8 +51995,35 @@
       <c r="S11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U11">
+        <v>9</v>
+      </c>
+      <c r="V11">
+        <v>121</v>
+      </c>
+      <c r="W11">
+        <v>2</v>
+      </c>
+      <c r="X11">
+        <v>3</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>2</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>101</v>
       </c>
@@ -51780,8 +52054,32 @@
       <c r="S12">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <v>10</v>
+      </c>
+      <c r="V12">
+        <v>122</v>
+      </c>
+      <c r="W12">
+        <v>13</v>
+      </c>
+      <c r="X12">
+        <v>22</v>
+      </c>
+      <c r="Y12">
+        <v>4</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>102</v>
       </c>
@@ -51812,8 +52110,32 @@
       <c r="R13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <v>11</v>
+      </c>
+      <c r="V13">
+        <v>123</v>
+      </c>
+      <c r="W13">
+        <v>23</v>
+      </c>
+      <c r="Y13">
+        <v>2</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>17</v>
+      </c>
+      <c r="AD13">
+        <v>2</v>
+      </c>
+      <c r="AG13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>102</v>
       </c>
@@ -51823,8 +52145,56 @@
       <c r="D14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f>SUM(H2:H13)</f>
+        <v>140</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14:S14" si="0">SUM(I2:I13)</f>
+        <v>55</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>102</v>
       </c>
@@ -51834,8 +52204,11 @@
       <c r="D15">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>102</v>
       </c>
@@ -51881,8 +52254,44 @@
       <c r="S16">
         <v>223</v>
       </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="W16">
+        <v>201</v>
+      </c>
+      <c r="X16">
+        <v>202</v>
+      </c>
+      <c r="Y16">
+        <v>203</v>
+      </c>
+      <c r="Z16">
+        <v>211</v>
+      </c>
+      <c r="AA16">
+        <v>212</v>
+      </c>
+      <c r="AB16">
+        <v>213</v>
+      </c>
+      <c r="AC16">
+        <v>214</v>
+      </c>
+      <c r="AD16">
+        <v>215</v>
+      </c>
+      <c r="AE16">
+        <v>220</v>
+      </c>
+      <c r="AF16">
+        <v>221</v>
+      </c>
+      <c r="AG16">
+        <v>222</v>
+      </c>
+      <c r="AH16">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>102</v>
       </c>
@@ -51900,51 +52309,102 @@
         <v>0.10869565217391304</v>
       </c>
       <c r="I17" s="7">
-        <f t="shared" ref="I17:S17" si="0">IF(I2="","",I2/SUM($H2:$S2))</f>
+        <f t="shared" ref="I17:S17" si="1">IF(I2="","",I2/SUM($H2:$S2))</f>
         <v>8.6956521739130432E-2</v>
       </c>
       <c r="J17" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K17" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.246376811594203E-3</v>
       </c>
       <c r="M17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4492753623188406E-2</v>
       </c>
       <c r="N17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.48550724637681159</v>
       </c>
       <c r="O17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.7971014492753624E-2</v>
       </c>
       <c r="P17" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6231884057971016E-2</v>
       </c>
       <c r="R17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1739130434782608E-2</v>
       </c>
       <c r="S17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18115942028985507</v>
       </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V17">
+        <v>101</v>
+      </c>
+      <c r="W17" s="7">
+        <f>W2/SUM($W2:$AH2)</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="7">
+        <f t="shared" ref="X17:AH17" si="2">X2/SUM($W2:$AH2)</f>
+        <v>9.7560975609756101E-2</v>
+      </c>
+      <c r="Y17" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="7">
+        <f t="shared" si="2"/>
+        <v>8.130081300813009E-3</v>
+      </c>
+      <c r="AB17" s="7">
+        <f t="shared" si="2"/>
+        <v>1.6260162601626018E-2</v>
+      </c>
+      <c r="AC17" s="7">
+        <f t="shared" si="2"/>
+        <v>0.54471544715447151</v>
+      </c>
+      <c r="AD17" s="7">
+        <f t="shared" si="2"/>
+        <v>6.5040650406504072E-2</v>
+      </c>
+      <c r="AE17" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="7">
+        <f t="shared" si="2"/>
+        <v>4.065040650406504E-2</v>
+      </c>
+      <c r="AG17" s="7">
+        <f t="shared" si="2"/>
+        <v>2.4390243902439025E-2</v>
+      </c>
+      <c r="AH17" s="7">
+        <f t="shared" si="2"/>
+        <v>0.2032520325203252</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>102</v>
       </c>
@@ -51958,55 +52418,106 @@
         <v>102</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="H18:S18" si="1">IF(H3="","",H3/SUM($H3:$S3))</f>
+        <f t="shared" ref="H18:S18" si="3">IF(H3="","",H3/SUM($H3:$S3))</f>
         <v>0.23529411764705882</v>
       </c>
       <c r="I18" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="K18" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L18" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M18" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="O18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="P18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="Q18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="R18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="S18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.9411764705882353E-2</v>
       </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V18">
+        <v>102</v>
+      </c>
+      <c r="W18" s="7">
+        <f t="shared" ref="W18:AH18" si="4">W3/SUM($W3:$AH3)</f>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="X18" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="7">
+        <f t="shared" si="4"/>
+        <v>2.9411764705882353E-2</v>
+      </c>
+      <c r="Z18" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="7">
+        <f t="shared" si="4"/>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="AD18" s="7">
+        <f t="shared" si="4"/>
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="AE18" s="7">
+        <f t="shared" si="4"/>
+        <v>2.9411764705882353E-2</v>
+      </c>
+      <c r="AF18" s="7">
+        <f t="shared" si="4"/>
+        <v>2.9411764705882353E-2</v>
+      </c>
+      <c r="AG18" s="7">
+        <f t="shared" si="4"/>
+        <v>2.9411764705882353E-2</v>
+      </c>
+      <c r="AH18" s="7">
+        <f t="shared" si="4"/>
+        <v>2.9411764705882353E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>102</v>
       </c>
@@ -52020,55 +52531,106 @@
         <v>103</v>
       </c>
       <c r="H19" s="7" t="str">
-        <f t="shared" ref="H19:S19" si="2">IF(H4="","",H4/SUM($H4:$S4))</f>
+        <f t="shared" ref="H19:S19" si="5">IF(H4="","",H4/SUM($H4:$S4))</f>
         <v/>
       </c>
       <c r="I19" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J19" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K19" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L19" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M19" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N19" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="O19" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P19" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q19" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R19" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.77777777777777779</v>
       </c>
       <c r="S19" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V19">
+        <v>103</v>
+      </c>
+      <c r="W19" s="7">
+        <f t="shared" ref="W19:AH19" si="6">W4/SUM($W4:$AH4)</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="7">
+        <f t="shared" si="6"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AD19" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="7">
+        <f t="shared" si="6"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="AH19" s="7">
+        <f t="shared" si="6"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>102</v>
       </c>
@@ -52082,55 +52644,106 @@
         <v>111</v>
       </c>
       <c r="H20" s="7" t="str">
-        <f t="shared" ref="H20:S20" si="3">IF(H5="","",H5/SUM($H5:$S5))</f>
+        <f t="shared" ref="H20:S20" si="7">IF(H5="","",H5/SUM($H5:$S5))</f>
         <v/>
       </c>
       <c r="I20" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J20" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K20" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L20" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M20" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N20" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="O20" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P20" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Q20" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R20" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.77777777777777779</v>
       </c>
       <c r="S20" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V20">
+        <v>111</v>
+      </c>
+      <c r="W20" s="7">
+        <f t="shared" ref="W20:AH20" si="8">W5/SUM($W5:$AH5)</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="7">
+        <f t="shared" si="8"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AD20" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="7">
+        <f t="shared" si="8"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="AH20" s="7">
+        <f t="shared" si="8"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>103</v>
       </c>
@@ -52144,55 +52757,106 @@
         <v>112</v>
       </c>
       <c r="H21" s="7">
-        <f t="shared" ref="H21:S21" si="4">IF(H6="","",H6/SUM($H6:$S6))</f>
+        <f t="shared" ref="H21:S21" si="9">IF(H6="","",H6/SUM($H6:$S6))</f>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="I21" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J21" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K21" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L21" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M21" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N21" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.69230769230769229</v>
       </c>
       <c r="O21" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.15384615384615385</v>
       </c>
       <c r="P21" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q21" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="R21" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="S21" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="V21">
+        <v>112</v>
+      </c>
+      <c r="W21" s="7">
+        <f t="shared" ref="W21:AH21" si="10">W6/SUM($W6:$AH6)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="X21" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="7">
+        <f t="shared" si="10"/>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="AD21" s="7">
+        <f t="shared" si="10"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="AE21" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="7">
+        <f t="shared" si="10"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AG21" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>103</v>
       </c>
@@ -52206,55 +52870,106 @@
         <v>113</v>
       </c>
       <c r="H22" s="7">
-        <f t="shared" ref="H22:S22" si="5">IF(H7="","",H7/SUM($H7:$S7))</f>
+        <f t="shared" ref="H22:S22" si="11">IF(H7="","",H7/SUM($H7:$S7))</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="I22" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J22" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K22" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L22" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M22" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N22" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="O22" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="P22" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q22" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="R22" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="S22" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V22">
+        <v>113</v>
+      </c>
+      <c r="W22" s="7">
+        <f t="shared" ref="W22:AH22" si="12">W7/SUM($W7:$AH7)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="X22" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="7">
+        <f t="shared" si="12"/>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="AD22" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>103</v>
       </c>
@@ -52268,55 +52983,106 @@
         <v>114</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" ref="H23:S23" si="6">IF(H8="","",H8/SUM($H8:$S8))</f>
+        <f t="shared" ref="H23:S23" si="13">IF(H8="","",H8/SUM($H8:$S8))</f>
         <v>0.28515625</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>6.640625E-2</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.90625E-3</v>
       </c>
       <c r="K23" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L23" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>9.375E-2</v>
       </c>
       <c r="M23" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.28125</v>
       </c>
       <c r="N23" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.515625E-2</v>
       </c>
       <c r="O23" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.16796875</v>
       </c>
       <c r="P23" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Q23" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.171875E-2</v>
       </c>
       <c r="R23" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.171875E-2</v>
       </c>
       <c r="S23" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4.296875E-2</v>
       </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V23">
+        <v>114</v>
+      </c>
+      <c r="W23" s="7">
+        <f t="shared" ref="W23:AH23" si="14">W8/SUM($W8:$AH8)</f>
+        <v>0.29554655870445345</v>
+      </c>
+      <c r="X23" s="7">
+        <f t="shared" si="14"/>
+        <v>6.8825910931174086E-2</v>
+      </c>
+      <c r="Y23" s="7">
+        <f t="shared" si="14"/>
+        <v>4.048582995951417E-3</v>
+      </c>
+      <c r="Z23" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="7">
+        <f t="shared" si="14"/>
+        <v>9.7165991902834009E-2</v>
+      </c>
+      <c r="AB23" s="7">
+        <f t="shared" si="14"/>
+        <v>0.291497975708502</v>
+      </c>
+      <c r="AC23" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="7">
+        <f t="shared" si="14"/>
+        <v>0.17408906882591094</v>
+      </c>
+      <c r="AE23" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="7">
+        <f t="shared" si="14"/>
+        <v>1.2145748987854251E-2</v>
+      </c>
+      <c r="AG23" s="7">
+        <f t="shared" si="14"/>
+        <v>1.2145748987854251E-2</v>
+      </c>
+      <c r="AH23" s="7">
+        <f t="shared" si="14"/>
+        <v>4.4534412955465584E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>105</v>
       </c>
@@ -52330,55 +53096,106 @@
         <v>115</v>
       </c>
       <c r="H24" s="7" t="str">
-        <f t="shared" ref="H24:S24" si="7">IF(H9="","",H9/SUM($H9:$S9))</f>
+        <f t="shared" ref="H24:S24" si="15">IF(H9="","",H9/SUM($H9:$S9))</f>
         <v/>
       </c>
       <c r="I24" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="J24" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K24" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L24" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>8.6956521739130432E-2</v>
       </c>
       <c r="M24" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.4492753623188406E-2</v>
       </c>
       <c r="N24" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="O24" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P24" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.4492753623188406E-2</v>
       </c>
       <c r="Q24" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="R24" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="S24" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.13043478260869565</v>
       </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V24">
+        <v>115</v>
+      </c>
+      <c r="W24" s="7">
+        <f t="shared" ref="W24:AH24" si="16">W9/SUM($W9:$AH9)</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="7">
+        <f t="shared" si="16"/>
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="AB24" s="7">
+        <f t="shared" si="16"/>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="AC24" s="7">
+        <f t="shared" si="16"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AD24" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="7">
+        <f t="shared" si="16"/>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="AF24" s="7">
+        <f t="shared" si="16"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="AG24" s="7">
+        <f t="shared" si="16"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="AH24" s="7">
+        <f t="shared" si="16"/>
+        <v>0.13043478260869565</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>105</v>
       </c>
@@ -52392,55 +53209,106 @@
         <v>120</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" ref="H25:S25" si="8">IF(H10="","",H10/SUM($H10:$S10))</f>
+        <f t="shared" ref="H25:S25" si="17">IF(H10="","",H10/SUM($H10:$S10))</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="J25" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="K25" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L25" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="M25" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N25" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="O25" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="P25" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Q25" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="R25" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S25" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.13333333333333333</v>
       </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V25">
+        <v>120</v>
+      </c>
+      <c r="W25" s="7">
+        <f t="shared" ref="W25:AH25" si="18">W10/SUM($W10:$AH10)</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="X25" s="7">
+        <f t="shared" si="18"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="Y25" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="7">
+        <f t="shared" si="18"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="AD25" s="7">
+        <f t="shared" si="18"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="AE25" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="7">
+        <f t="shared" si="18"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="AG25" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="7">
+        <f t="shared" si="18"/>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>110</v>
       </c>
@@ -52454,55 +53322,106 @@
         <v>121</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" ref="H26:S26" si="9">IF(H11="","",H11/SUM($H11:$S11))</f>
+        <f t="shared" ref="H26:S26" si="19">IF(H11="","",H11/SUM($H11:$S11))</f>
         <v>0.18181818181818182</v>
       </c>
       <c r="I26" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0.27272727272727271</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="K26" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L26" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="M26" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="N26" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="O26" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P26" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="Q26" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="R26" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="S26" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>9.0909090909090912E-2</v>
       </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V26">
+        <v>121</v>
+      </c>
+      <c r="W26" s="7">
+        <f t="shared" ref="W26:AH26" si="20">W11/SUM($W11:$AH11)</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="X26" s="7">
+        <f t="shared" si="20"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="Y26" s="7">
+        <f t="shared" si="20"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="Z26" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="7">
+        <f t="shared" si="20"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="AD26" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="7">
+        <f t="shared" si="20"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AF26" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="7">
+        <f t="shared" si="20"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AH26" s="7">
+        <f t="shared" si="20"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>111</v>
       </c>
@@ -52516,55 +53435,106 @@
         <v>122</v>
       </c>
       <c r="H27" s="7">
-        <f t="shared" ref="H27:S27" si="10">IF(H12="","",H12/SUM($H12:$S12))</f>
+        <f t="shared" ref="H27:S27" si="21">IF(H12="","",H12/SUM($H12:$S12))</f>
         <v>0.26530612244897961</v>
       </c>
       <c r="I27" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>0.44897959183673469</v>
       </c>
       <c r="J27" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>8.1632653061224483E-2</v>
       </c>
       <c r="K27" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="L27" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="M27" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N27" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>2.0408163265306121E-2</v>
       </c>
       <c r="O27" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>2.0408163265306121E-2</v>
       </c>
       <c r="P27" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Q27" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="R27" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S27" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>0.16326530612244897</v>
       </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V27">
+        <v>122</v>
+      </c>
+      <c r="W27" s="7">
+        <f t="shared" ref="W27:AH27" si="22">W12/SUM($W12:$AH12)</f>
+        <v>0.26530612244897961</v>
+      </c>
+      <c r="X27" s="7">
+        <f t="shared" si="22"/>
+        <v>0.44897959183673469</v>
+      </c>
+      <c r="Y27" s="7">
+        <f t="shared" si="22"/>
+        <v>8.1632653061224483E-2</v>
+      </c>
+      <c r="Z27" s="7">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="7">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="7">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="7">
+        <f t="shared" si="22"/>
+        <v>2.0408163265306121E-2</v>
+      </c>
+      <c r="AD27" s="7">
+        <f t="shared" si="22"/>
+        <v>2.0408163265306121E-2</v>
+      </c>
+      <c r="AE27" s="7">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="7">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="7">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="7">
+        <f t="shared" si="22"/>
+        <v>0.16326530612244897</v>
+      </c>
+    </row>
+    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>111</v>
       </c>
@@ -52578,55 +53548,106 @@
         <v>123</v>
       </c>
       <c r="H28" s="7">
-        <f t="shared" ref="H28:S28" si="11">IF(H13="","",H13/SUM($H13:$S13))</f>
+        <f t="shared" ref="H28:S28" si="23">IF(H13="","",H13/SUM($H13:$S13))</f>
         <v>0.48936170212765956</v>
       </c>
       <c r="I28" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="J28" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>4.2553191489361701E-2</v>
       </c>
       <c r="K28" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="L28" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="M28" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>2.1276595744680851E-2</v>
       </c>
       <c r="N28" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0.36170212765957449</v>
       </c>
       <c r="O28" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>4.2553191489361701E-2</v>
       </c>
       <c r="P28" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="Q28" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="R28" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>4.2553191489361701E-2</v>
       </c>
       <c r="S28" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="V28">
+        <v>123</v>
+      </c>
+      <c r="W28" s="7">
+        <f t="shared" ref="W28:AH28" si="24">W13/SUM($W13:$AH13)</f>
+        <v>0.48936170212765956</v>
+      </c>
+      <c r="X28" s="7">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="7">
+        <f t="shared" si="24"/>
+        <v>4.2553191489361701E-2</v>
+      </c>
+      <c r="Z28" s="7">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="7">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="7">
+        <f t="shared" si="24"/>
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="AC28" s="7">
+        <f t="shared" si="24"/>
+        <v>0.36170212765957449</v>
+      </c>
+      <c r="AD28" s="7">
+        <f t="shared" si="24"/>
+        <v>4.2553191489361701E-2</v>
+      </c>
+      <c r="AE28" s="7">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="7">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="7">
+        <f t="shared" si="24"/>
+        <v>4.2553191489361701E-2</v>
+      </c>
+      <c r="AH28" s="7">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>111</v>
       </c>
@@ -52637,7 +53658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>111</v>
       </c>
@@ -52647,8 +53668,11 @@
       <c r="D30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V30" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>112</v>
       </c>
@@ -52658,8 +53682,44 @@
       <c r="D31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="W31">
+        <v>201</v>
+      </c>
+      <c r="X31">
+        <v>202</v>
+      </c>
+      <c r="Y31">
+        <v>203</v>
+      </c>
+      <c r="Z31">
+        <v>211</v>
+      </c>
+      <c r="AA31">
+        <v>212</v>
+      </c>
+      <c r="AB31">
+        <v>213</v>
+      </c>
+      <c r="AC31">
+        <v>214</v>
+      </c>
+      <c r="AD31">
+        <v>215</v>
+      </c>
+      <c r="AE31">
+        <v>220</v>
+      </c>
+      <c r="AF31">
+        <v>221</v>
+      </c>
+      <c r="AG31">
+        <v>222</v>
+      </c>
+      <c r="AH31">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>112</v>
       </c>
@@ -52669,8 +53729,59 @@
       <c r="D32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="V32">
+        <v>101</v>
+      </c>
+      <c r="W32" s="7">
+        <f>W17/SUM($W17:$AH17)</f>
+        <v>0</v>
+      </c>
+      <c r="X32" s="7">
+        <f>W32+X17</f>
+        <v>9.7560975609756101E-2</v>
+      </c>
+      <c r="Y32" s="7">
+        <f t="shared" ref="Y32:AH32" si="25">X32+Y17</f>
+        <v>9.7560975609756101E-2</v>
+      </c>
+      <c r="Z32" s="7">
+        <f t="shared" si="25"/>
+        <v>9.7560975609756101E-2</v>
+      </c>
+      <c r="AA32" s="7">
+        <f t="shared" si="25"/>
+        <v>0.10569105691056911</v>
+      </c>
+      <c r="AB32" s="7">
+        <f t="shared" si="25"/>
+        <v>0.12195121951219513</v>
+      </c>
+      <c r="AC32" s="7">
+        <f t="shared" si="25"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AD32" s="7">
+        <f t="shared" si="25"/>
+        <v>0.73170731707317072</v>
+      </c>
+      <c r="AE32" s="7">
+        <f t="shared" si="25"/>
+        <v>0.73170731707317072</v>
+      </c>
+      <c r="AF32" s="7">
+        <f t="shared" si="25"/>
+        <v>0.77235772357723576</v>
+      </c>
+      <c r="AG32" s="7">
+        <f t="shared" si="25"/>
+        <v>0.7967479674796748</v>
+      </c>
+      <c r="AH32" s="7">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>112</v>
       </c>
@@ -52680,8 +53791,59 @@
       <c r="D33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="V33">
+        <v>102</v>
+      </c>
+      <c r="W33" s="7">
+        <f t="shared" ref="W33:AH33" si="26">W18/SUM($W18:$AH18)</f>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="X33" s="7">
+        <f t="shared" ref="X33:AH33" si="27">W33+X18</f>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="Y33" s="7">
+        <f t="shared" si="27"/>
+        <v>0.26470588235294118</v>
+      </c>
+      <c r="Z33" s="7">
+        <f t="shared" si="27"/>
+        <v>0.26470588235294118</v>
+      </c>
+      <c r="AA33" s="7">
+        <f t="shared" si="27"/>
+        <v>0.26470588235294118</v>
+      </c>
+      <c r="AB33" s="7">
+        <f t="shared" si="27"/>
+        <v>0.26470588235294118</v>
+      </c>
+      <c r="AC33" s="7">
+        <f t="shared" si="27"/>
+        <v>0.79411764705882359</v>
+      </c>
+      <c r="AD33" s="7">
+        <f t="shared" si="27"/>
+        <v>0.88235294117647067</v>
+      </c>
+      <c r="AE33" s="7">
+        <f t="shared" si="27"/>
+        <v>0.91176470588235303</v>
+      </c>
+      <c r="AF33" s="7">
+        <f t="shared" si="27"/>
+        <v>0.94117647058823539</v>
+      </c>
+      <c r="AG33" s="7">
+        <f t="shared" si="27"/>
+        <v>0.97058823529411775</v>
+      </c>
+      <c r="AH33" s="7">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>112</v>
       </c>
@@ -52691,8 +53853,59 @@
       <c r="D34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="V34">
+        <v>103</v>
+      </c>
+      <c r="W34" s="7">
+        <f t="shared" ref="W34:AH34" si="28">W19/SUM($W19:$AH19)</f>
+        <v>0</v>
+      </c>
+      <c r="X34" s="7">
+        <f t="shared" ref="X34:AH34" si="29">W34+X19</f>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="7">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="7">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="7">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="7">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="7">
+        <f t="shared" si="29"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AD34" s="7">
+        <f t="shared" si="29"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AE34" s="7">
+        <f t="shared" si="29"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AF34" s="7">
+        <f t="shared" si="29"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AG34" s="7">
+        <f t="shared" si="29"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="AH34" s="7">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>113</v>
       </c>
@@ -52702,8 +53915,59 @@
       <c r="D35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="V35">
+        <v>111</v>
+      </c>
+      <c r="W35" s="7">
+        <f t="shared" ref="W35:AH35" si="30">W20/SUM($W20:$AH20)</f>
+        <v>0</v>
+      </c>
+      <c r="X35" s="7">
+        <f t="shared" ref="X35:AH35" si="31">W35+X20</f>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="7">
+        <f t="shared" si="31"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AD35" s="7">
+        <f t="shared" si="31"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AE35" s="7">
+        <f t="shared" si="31"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AF35" s="7">
+        <f t="shared" si="31"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AG35" s="7">
+        <f t="shared" si="31"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="AH35" s="7">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>113</v>
       </c>
@@ -52713,8 +53977,59 @@
       <c r="D36">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="V36">
+        <v>112</v>
+      </c>
+      <c r="W36" s="7">
+        <f t="shared" ref="W36:AH36" si="32">W21/SUM($W21:$AH21)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="X36" s="7">
+        <f t="shared" ref="X36:AH36" si="33">W36+X21</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="Y36" s="7">
+        <f t="shared" si="33"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="Z36" s="7">
+        <f t="shared" si="33"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AA36" s="7">
+        <f t="shared" si="33"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AB36" s="7">
+        <f t="shared" si="33"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AC36" s="7">
+        <f t="shared" si="33"/>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="AD36" s="7">
+        <f t="shared" si="33"/>
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="AE36" s="7">
+        <f t="shared" si="33"/>
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="AF36" s="7">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="AG36" s="7">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="AH36" s="7">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>114</v>
       </c>
@@ -52724,8 +54039,59 @@
       <c r="D37">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="V37">
+        <v>113</v>
+      </c>
+      <c r="W37" s="7">
+        <f t="shared" ref="W37:AH37" si="34">W22/SUM($W22:$AH22)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="X37" s="7">
+        <f t="shared" ref="X37:AH37" si="35">W37+X22</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="Y37" s="7">
+        <f t="shared" si="35"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="Z37" s="7">
+        <f t="shared" si="35"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AA37" s="7">
+        <f t="shared" si="35"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AB37" s="7">
+        <f t="shared" si="35"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AC37" s="7">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AD37" s="7">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AE37" s="7">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AF37" s="7">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AG37" s="7">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AH37" s="7">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>114</v>
       </c>
@@ -52735,8 +54101,59 @@
       <c r="D38">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="V38">
+        <v>114</v>
+      </c>
+      <c r="W38" s="7">
+        <f t="shared" ref="W38:AH38" si="36">W23/SUM($W23:$AH23)</f>
+        <v>0.29554655870445351</v>
+      </c>
+      <c r="X38" s="7">
+        <f t="shared" ref="X38:AH38" si="37">W38+X23</f>
+        <v>0.36437246963562758</v>
+      </c>
+      <c r="Y38" s="7">
+        <f t="shared" si="37"/>
+        <v>0.36842105263157898</v>
+      </c>
+      <c r="Z38" s="7">
+        <f t="shared" si="37"/>
+        <v>0.36842105263157898</v>
+      </c>
+      <c r="AA38" s="7">
+        <f t="shared" si="37"/>
+        <v>0.46558704453441302</v>
+      </c>
+      <c r="AB38" s="7">
+        <f t="shared" si="37"/>
+        <v>0.75708502024291502</v>
+      </c>
+      <c r="AC38" s="7">
+        <f t="shared" si="37"/>
+        <v>0.75708502024291502</v>
+      </c>
+      <c r="AD38" s="7">
+        <f t="shared" si="37"/>
+        <v>0.93117408906882593</v>
+      </c>
+      <c r="AE38" s="7">
+        <f t="shared" si="37"/>
+        <v>0.93117408906882593</v>
+      </c>
+      <c r="AF38" s="7">
+        <f t="shared" si="37"/>
+        <v>0.94331983805668018</v>
+      </c>
+      <c r="AG38" s="7">
+        <f t="shared" si="37"/>
+        <v>0.95546558704453444</v>
+      </c>
+      <c r="AH38" s="7">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>114</v>
       </c>
@@ -52746,8 +54163,59 @@
       <c r="D39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="V39">
+        <v>115</v>
+      </c>
+      <c r="W39" s="7">
+        <f t="shared" ref="W39:AH39" si="38">W24/SUM($W24:$AH24)</f>
+        <v>0</v>
+      </c>
+      <c r="X39" s="7">
+        <f t="shared" ref="X39:AH39" si="39">W39+X24</f>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="7">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="Z39" s="7">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AA39" s="7">
+        <f t="shared" si="39"/>
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="AB39" s="7">
+        <f t="shared" si="39"/>
+        <v>0.10144927536231883</v>
+      </c>
+      <c r="AC39" s="7">
+        <f t="shared" si="39"/>
+        <v>0.76811594202898548</v>
+      </c>
+      <c r="AD39" s="7">
+        <f t="shared" si="39"/>
+        <v>0.76811594202898548</v>
+      </c>
+      <c r="AE39" s="7">
+        <f t="shared" si="39"/>
+        <v>0.78260869565217384</v>
+      </c>
+      <c r="AF39" s="7">
+        <f t="shared" si="39"/>
+        <v>0.82608695652173902</v>
+      </c>
+      <c r="AG39" s="7">
+        <f t="shared" si="39"/>
+        <v>0.86956521739130421</v>
+      </c>
+      <c r="AH39" s="7">
+        <f t="shared" si="39"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>114</v>
       </c>
@@ -52757,8 +54225,59 @@
       <c r="D40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="V40">
+        <v>120</v>
+      </c>
+      <c r="W40" s="7">
+        <f t="shared" ref="W40:AH40" si="40">W25/SUM($W25:$AH25)</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="X40" s="7">
+        <f t="shared" ref="X40:AH40" si="41">W40+X25</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Y40" s="7">
+        <f t="shared" si="41"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z40" s="7">
+        <f t="shared" si="41"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AA40" s="7">
+        <f t="shared" si="41"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AB40" s="7">
+        <f t="shared" si="41"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AC40" s="7">
+        <f t="shared" si="41"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="AD40" s="7">
+        <f t="shared" si="41"/>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="AE40" s="7">
+        <f t="shared" si="41"/>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="AF40" s="7">
+        <f t="shared" si="41"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="AG40" s="7">
+        <f t="shared" si="41"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="AH40" s="7">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>114</v>
       </c>
@@ -52768,8 +54287,59 @@
       <c r="D41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="V41">
+        <v>121</v>
+      </c>
+      <c r="W41" s="7">
+        <f t="shared" ref="W41:AH41" si="42">W26/SUM($W26:$AH26)</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="X41" s="7">
+        <f t="shared" ref="X41:AH41" si="43">W41+X26</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="Y41" s="7">
+        <f t="shared" si="43"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="Z41" s="7">
+        <f t="shared" si="43"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="AA41" s="7">
+        <f t="shared" si="43"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="AB41" s="7">
+        <f t="shared" si="43"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="AC41" s="7">
+        <f t="shared" si="43"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="AD41" s="7">
+        <f t="shared" si="43"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="AE41" s="7">
+        <f t="shared" si="43"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="AF41" s="7">
+        <f t="shared" si="43"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="AG41" s="7">
+        <f t="shared" si="43"/>
+        <v>0.90909090909090917</v>
+      </c>
+      <c r="AH41" s="7">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>114</v>
       </c>
@@ -52779,8 +54349,59 @@
       <c r="D42">
         <v>24</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="V42">
+        <v>122</v>
+      </c>
+      <c r="W42" s="7">
+        <f t="shared" ref="W42:AH42" si="44">W27/SUM($W27:$AH27)</f>
+        <v>0.26530612244897961</v>
+      </c>
+      <c r="X42" s="7">
+        <f t="shared" ref="X42:AH42" si="45">W42+X27</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="Y42" s="7">
+        <f t="shared" si="45"/>
+        <v>0.79591836734693877</v>
+      </c>
+      <c r="Z42" s="7">
+        <f t="shared" si="45"/>
+        <v>0.79591836734693877</v>
+      </c>
+      <c r="AA42" s="7">
+        <f t="shared" si="45"/>
+        <v>0.79591836734693877</v>
+      </c>
+      <c r="AB42" s="7">
+        <f t="shared" si="45"/>
+        <v>0.79591836734693877</v>
+      </c>
+      <c r="AC42" s="7">
+        <f t="shared" si="45"/>
+        <v>0.81632653061224492</v>
+      </c>
+      <c r="AD42" s="7">
+        <f t="shared" si="45"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="AE42" s="7">
+        <f t="shared" si="45"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="AF42" s="7">
+        <f t="shared" si="45"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="AG42" s="7">
+        <f t="shared" si="45"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="AH42" s="7">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>114</v>
       </c>
@@ -52790,8 +54411,59 @@
       <c r="D43">
         <v>72</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="V43">
+        <v>123</v>
+      </c>
+      <c r="W43" s="7">
+        <f t="shared" ref="W43:AH43" si="46">W28/SUM($W28:$AH28)</f>
+        <v>0.48936170212765956</v>
+      </c>
+      <c r="X43" s="7">
+        <f t="shared" ref="X43:AH43" si="47">W43+X28</f>
+        <v>0.48936170212765956</v>
+      </c>
+      <c r="Y43" s="7">
+        <f t="shared" si="47"/>
+        <v>0.53191489361702127</v>
+      </c>
+      <c r="Z43" s="7">
+        <f t="shared" si="47"/>
+        <v>0.53191489361702127</v>
+      </c>
+      <c r="AA43" s="7">
+        <f t="shared" si="47"/>
+        <v>0.53191489361702127</v>
+      </c>
+      <c r="AB43" s="7">
+        <f t="shared" si="47"/>
+        <v>0.55319148936170215</v>
+      </c>
+      <c r="AC43" s="7">
+        <f t="shared" si="47"/>
+        <v>0.91489361702127669</v>
+      </c>
+      <c r="AD43" s="7">
+        <f t="shared" si="47"/>
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="AE43" s="7">
+        <f t="shared" si="47"/>
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="AF43" s="7">
+        <f>AE43+AF28</f>
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="AG43" s="7">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="AH43" s="7">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>114</v>
       </c>
@@ -52802,7 +54474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>114</v>
       </c>
@@ -52813,7 +54485,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>114</v>
       </c>
@@ -52824,7 +54496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>114</v>
       </c>
@@ -52835,7 +54507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>114</v>
       </c>
